--- a/ontology/ontology_tables/part_ontology.xlsx
+++ b/ontology/ontology_tables/part_ontology.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/q436477/Projekte/knowledge_agents/ontology/ontology_tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1D1D88-4C30-DD40-940A-B3D34618E38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="31200" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -565,8 +571,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,14 +650,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
       <font>
-        <b/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FF800080"/>
       </font>
     </dxf>
     <dxf>
@@ -661,16 +666,25 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF800080"/>
+        <b/>
+        <color rgb="FF0000FF"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -712,7 +726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,9 +758,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,6 +810,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,17 +1003,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="16.5703125" style="1" customWidth="1"/>
+    <col min="1" max="13" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1004,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1012,7 +1064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,7 +1072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1028,7 +1080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1036,7 +1088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1044,12 +1096,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1057,7 +1109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1065,7 +1117,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1094,7 +1146,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1160,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1122,7 +1174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1139,7 +1191,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1211,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1176,7 +1228,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1193,7 +1245,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1262,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -1233,7 +1285,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1311,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1279,7 +1331,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1296,7 +1348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1316,7 +1368,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1391,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1414,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +1428,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,7 +1442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +1465,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1430,7 +1482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +1505,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,7 +1522,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>23</v>
       </c>
@@ -1487,7 +1539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
@@ -1504,7 +1556,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
@@ -1535,7 +1587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,7 +1601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1618,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
@@ -1580,7 +1632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
@@ -1594,7 +1646,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
@@ -1614,7 +1666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>21</v>
       </c>
@@ -1637,7 +1689,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>21</v>
       </c>
@@ -1651,7 +1703,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -1668,7 +1720,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>21</v>
       </c>
@@ -1685,7 +1737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,7 +1757,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>21</v>
       </c>
@@ -1722,7 +1774,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1797,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,7 +1814,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>21</v>
       </c>
@@ -1805,7 +1857,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1874,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>21</v>
       </c>
@@ -1845,7 +1897,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1911,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>21</v>
       </c>
@@ -1873,7 +1925,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +1945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1962,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -1932,31 +1984,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A999">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"relation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"attribute"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location=""/>
-    <hyperlink ref="M12" r:id="rId2"/>
-    <hyperlink ref="M22" r:id="rId3"/>
-    <hyperlink ref="M26" r:id="rId4"/>
-    <hyperlink ref="M28" r:id="rId5"/>
-    <hyperlink ref="M35" r:id="rId6"/>
-    <hyperlink ref="M48" r:id="rId7"/>
-    <hyperlink ref="M51" r:id="rId8"/>
-    <hyperlink ref="M53" r:id="rId9"/>
-    <hyperlink ref="M57" r:id="rId10"/>
-    <hyperlink ref="M59" r:id="rId11"/>
-    <hyperlink ref="M62" r:id="rId12"/>
-    <hyperlink ref="M69" r:id="rId13"/>
-    <hyperlink ref="M70" r:id="rId14"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M22" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M28" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M48" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M51" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M53" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M57" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M59" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M62" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M69" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M70" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
